--- a/Research on the topic/Technology/charging time graph.xlsx
+++ b/Research on the topic/Technology/charging time graph.xlsx
@@ -15,9 +15,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
-  <si>
-    <t>Charging time for 100 km of BEV range</t>
-  </si>
   <si>
     <t>Voltage</t>
   </si>
@@ -41,6 +38,9 @@
   </si>
   <si>
     <t>Power supply (kW)</t>
+  </si>
+  <si>
+    <t>Charging time for 100 km (minutes)</t>
   </si>
 </sst>
 </file>
@@ -259,7 +259,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Charging time for 100 km of BEV range</c:v>
+                  <c:v>Charging time for 100 km (minutes)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -387,11 +387,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-298903568"/>
-        <c:axId val="-298905200"/>
+        <c:axId val="1983377824"/>
+        <c:axId val="1983378912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-298903568"/>
+        <c:axId val="1983377824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -452,7 +452,7 @@
             <a:endParaRPr lang="tr-TR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-298905200"/>
+        <c:crossAx val="1983378912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -460,7 +460,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-298905200"/>
+        <c:axId val="1983378912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -521,7 +521,7 @@
             <a:endParaRPr lang="tr-TR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-298903568"/>
+        <c:crossAx val="1983377824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -687,7 +687,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Charging time for 100 km of BEV range</c:v>
+                  <c:v>Charging time for 100 km (minutes)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -815,11 +815,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-298908464"/>
-        <c:axId val="-298903024"/>
+        <c:axId val="1983384352"/>
+        <c:axId val="1983385440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-298908464"/>
+        <c:axId val="1983384352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -880,7 +880,7 @@
             <a:endParaRPr lang="tr-TR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-298903024"/>
+        <c:crossAx val="1983385440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -888,7 +888,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-298903024"/>
+        <c:axId val="1983385440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -949,7 +949,7 @@
             <a:endParaRPr lang="tr-TR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-298908464"/>
+        <c:crossAx val="1983384352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2220,10 +2220,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2564,8 +2564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="D17" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2577,18 +2577,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2599,7 +2599,7 @@
         <v>3.3</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" s="4">
         <v>16</v>
@@ -2613,7 +2613,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" s="4">
         <v>32</v>
@@ -2627,7 +2627,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E5" s="4">
         <v>16</v>
@@ -2641,7 +2641,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6" s="4">
         <v>32</v>
@@ -2655,7 +2655,7 @@
         <v>43</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E7" s="4">
         <v>63</v>
@@ -2669,7 +2669,7 @@
         <v>50</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E8" s="4">
         <v>125</v>
@@ -2683,7 +2683,7 @@
         <v>120</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E9" s="4">
         <v>325</v>
@@ -2691,7 +2691,7 @@
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Research on the topic/Technology/charging time graph.xlsx
+++ b/Research on the topic/Technology/charging time graph.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
   <si>
     <t>Voltage</t>
   </si>
@@ -41,13 +41,88 @@
   </si>
   <si>
     <t>Charging time for 100 km (minutes)</t>
+  </si>
+  <si>
+    <t>Power supply</t>
+  </si>
+  <si>
+    <t>Max current</t>
+  </si>
+  <si>
+    <t>6–8 hours</t>
+  </si>
+  <si>
+    <t>Single phase - 3.3 kW</t>
+  </si>
+  <si>
+    <t>16 A</t>
+  </si>
+  <si>
+    <t>3–4 hours</t>
+  </si>
+  <si>
+    <t>Single phase - 7 kW</t>
+  </si>
+  <si>
+    <t>32 A</t>
+  </si>
+  <si>
+    <t>2–3 hours</t>
+  </si>
+  <si>
+    <t>Three phase - 10 kW</t>
+  </si>
+  <si>
+    <t>1–2 hours</t>
+  </si>
+  <si>
+    <t>Three phase - 22 kW</t>
+  </si>
+  <si>
+    <t>20–30 minutes</t>
+  </si>
+  <si>
+    <t>Three phase - 43 kW</t>
+  </si>
+  <si>
+    <t>63 A</t>
+  </si>
+  <si>
+    <t>Direct current - 50 kW</t>
+  </si>
+  <si>
+    <t>100 - 125 A</t>
+  </si>
+  <si>
+    <t>10 minutes</t>
+  </si>
+  <si>
+    <t>Direct current - 120 kW</t>
+  </si>
+  <si>
+    <t>300 - 350 A</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>Column3</t>
+  </si>
+  <si>
+    <t>Column4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charging time for 100 km </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,6 +158,15 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -134,7 +218,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -151,12 +235,189 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF2F2F2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color rgb="FFAAAAAA"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFAAAAAA"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF9F9F9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color rgb="FFAAAAAA"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF9F9F9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color rgb="FFAAAAAA"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF9F9F9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color rgb="FFAAAAAA"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF2F2F2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color rgb="FFAAAAAA"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color rgb="FFAAAAAA"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color rgb="FFAAAAAA"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFAAAAAA"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFAAAAAA"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFAAAAAA"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -387,11 +648,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1983377824"/>
-        <c:axId val="1983378912"/>
+        <c:axId val="-1535635872"/>
+        <c:axId val="-1510972960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1983377824"/>
+        <c:axId val="-1535635872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -452,7 +713,7 @@
             <a:endParaRPr lang="tr-TR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1983378912"/>
+        <c:crossAx val="-1510972960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -460,7 +721,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1983378912"/>
+        <c:axId val="-1510972960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -521,7 +782,7 @@
             <a:endParaRPr lang="tr-TR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1983377824"/>
+        <c:crossAx val="-1535635872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -815,11 +1076,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1983384352"/>
-        <c:axId val="1983385440"/>
+        <c:axId val="-1218170048"/>
+        <c:axId val="-1218172224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1983384352"/>
+        <c:axId val="-1218170048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -880,7 +1141,7 @@
             <a:endParaRPr lang="tr-TR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1983385440"/>
+        <c:crossAx val="-1218172224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -888,7 +1149,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1983385440"/>
+        <c:axId val="-1218172224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -949,7 +1210,7 @@
             <a:endParaRPr lang="tr-TR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1983384352"/>
+        <c:crossAx val="-1218170048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2273,6 +2534,31 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B43:E50" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="5" tableBorderDxfId="6">
+  <tableColumns count="4">
+    <tableColumn id="1" name="Charging time for 100 km " dataDxfId="4"/>
+    <tableColumn id="2" name="Power supply" dataDxfId="3" dataCellStyle="Hyperlink"/>
+    <tableColumn id="3" name="Voltage" dataDxfId="2"/>
+    <tableColumn id="4" name="Max current" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B53:E61" totalsRowShown="0">
+  <autoFilter ref="B53:E61"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Column1"/>
+    <tableColumn id="2" name="Column2"/>
+    <tableColumn id="3" name="Column3"/>
+    <tableColumn id="4" name="Column4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2562,18 +2848,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E11"/>
+  <dimension ref="B1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D17" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E50" sqref="B43:E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.85546875" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -2692,6 +2978,132 @@
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B43" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B44" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B45" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B46" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B47" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B48" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>29</v>
+      </c>
+      <c r="C53" t="s">
+        <v>30</v>
+      </c>
+      <c r="D53" t="s">
+        <v>31</v>
+      </c>
+      <c r="E53" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -2704,8 +3116,18 @@
     <hyperlink ref="C7" r:id="rId6" tooltip="Three phase" display="http://en.wikipedia.org/wiki/Three_phase"/>
     <hyperlink ref="C8" r:id="rId7" tooltip="Direct current" display="http://en.wikipedia.org/wiki/Direct_current"/>
     <hyperlink ref="C9" r:id="rId8" tooltip="Direct current" display="http://en.wikipedia.org/wiki/Direct_current"/>
+    <hyperlink ref="C45" r:id="rId9" tooltip="Single phase" display="http://en.wikipedia.org/wiki/Single_phase"/>
+    <hyperlink ref="C46" r:id="rId10" tooltip="Three phase" display="http://en.wikipedia.org/wiki/Three_phase"/>
+    <hyperlink ref="C47" r:id="rId11" tooltip="Three phase" display="http://en.wikipedia.org/wiki/Three_phase"/>
+    <hyperlink ref="C48" r:id="rId12" tooltip="Three phase" display="http://en.wikipedia.org/wiki/Three_phase"/>
+    <hyperlink ref="C49" r:id="rId13" tooltip="Direct current" display="http://en.wikipedia.org/wiki/Direct_current"/>
+    <hyperlink ref="C50" r:id="rId14" tooltip="Direct current" display="http://en.wikipedia.org/wiki/Direct_current"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId9"/>
+  <drawing r:id="rId15"/>
+  <tableParts count="2">
+    <tablePart r:id="rId16"/>
+    <tablePart r:id="rId17"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Research on the topic/Technology/charging time graph.xlsx
+++ b/Research on the topic/Technology/charging time graph.xlsx
@@ -249,40 +249,6 @@
   <dxfs count="7">
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFF2F2F2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color rgb="FFAAAAAA"/>
-        </left>
-        <right style="medium">
-          <color rgb="FFAAAAAA"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -396,13 +362,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="medium">
-          <color rgb="FFAAAAAA"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="medium">
           <color rgb="FFAAAAAA"/>
         </left>
@@ -415,6 +374,47 @@
         <bottom style="medium">
           <color rgb="FFAAAAAA"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color rgb="FFAAAAAA"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF2F2F2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color rgb="FFAAAAAA"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFAAAAAA"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -451,15 +451,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
@@ -490,15 +491,16 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="tr-TR"/>
@@ -526,19 +528,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
+            <a:ln w="38100" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
+              <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:glow rad="139700">
-                <a:schemeClr val="accent1">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="14000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -590,19 +586,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
+            <a:ln w="38100" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
+              <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:glow rad="139700">
-                <a:schemeClr val="accent2">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="14000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -648,41 +638,95 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1535635872"/>
-        <c:axId val="-1510972960"/>
+        <c:axId val="-47246496"/>
+        <c:axId val="-47245408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1535635872"/>
+        <c:axId val="-47246496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="tr-TR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-47245408"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-47245408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="0">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -701,8 +745,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -713,76 +758,7 @@
             <a:endParaRPr lang="tr-TR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1510972960"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="-1510972960"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="0">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="tr-TR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-1535635872"/>
+        <c:crossAx val="-47246496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -812,8 +788,9 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="75000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -831,14 +808,11 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
+      <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="dk1">
+        <a:schemeClr val="tx1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -1076,11 +1050,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1218170048"/>
-        <c:axId val="-1218172224"/>
+        <c:axId val="-47255200"/>
+        <c:axId val="-47254112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1218170048"/>
+        <c:axId val="-47255200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1141,7 +1115,7 @@
             <a:endParaRPr lang="tr-TR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1218172224"/>
+        <c:crossAx val="-47254112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1149,7 +1123,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1218172224"/>
+        <c:axId val="-47254112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1210,7 +1184,7 @@
             <a:endParaRPr lang="tr-TR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1218170048"/>
+        <c:crossAx val="-47255200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1374,6 +1348,506 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="235">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="38100" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="8"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="2000" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1922,555 +2396,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="15000"/>
-        <a:lumOff val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="22225" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="139700">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="14000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:lumMod val="60000"/>
-          <a:lumOff val="40000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="50000"/>
-          <a:lumOff val="50000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="65000"/>
-                <a:lumOff val="35000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
-                <a:alpha val="25000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="65000"/>
-                <a:lumOff val="35000"/>
-                <a:alpha val="25000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1">
-          <a:lumMod val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2483,8 +2408,8 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2537,12 +2462,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B43:E50" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="5" tableBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B43:E50" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
   <tableColumns count="4">
-    <tableColumn id="1" name="Charging time for 100 km " dataDxfId="4"/>
-    <tableColumn id="2" name="Power supply" dataDxfId="3" dataCellStyle="Hyperlink"/>
-    <tableColumn id="3" name="Voltage" dataDxfId="2"/>
-    <tableColumn id="4" name="Max current" dataDxfId="1"/>
+    <tableColumn id="1" name="Charging time for 100 km " dataDxfId="3"/>
+    <tableColumn id="2" name="Power supply" dataDxfId="2" dataCellStyle="Hyperlink"/>
+    <tableColumn id="3" name="Voltage" dataDxfId="1"/>
+    <tableColumn id="4" name="Max current" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2850,8 +2775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E50" sqref="B43:E50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Research on the topic/Technology/charging time graph.xlsx
+++ b/Research on the topic/Technology/charging time graph.xlsx
@@ -453,20 +453,25 @@
             <a:pPr>
               <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="lt1"/>
                 </a:solidFill>
-                <a:latin typeface="+mj-lt"/>
-                <a:ea typeface="+mj-ea"/>
-                <a:cs typeface="+mj-cs"/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="tr-TR"/>
+              <a:rPr lang="tr-TR">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
               <a:t>Charging Time</a:t>
             </a:r>
+            <a:endParaRPr lang="tr-TR"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -474,15 +479,20 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.42852579597763046"/>
-          <c:y val="0.02"/>
+          <c:x val="0.33924204042065731"/>
+          <c:y val="2.8332758677817718E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="accent3"/>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -493,14 +503,11 @@
           <a:pPr>
             <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="lt1"/>
               </a:solidFill>
-              <a:latin typeface="+mj-lt"/>
-              <a:ea typeface="+mj-ea"/>
-              <a:cs typeface="+mj-cs"/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="tr-TR"/>
@@ -530,7 +537,9 @@
           <c:spPr>
             <a:ln w="38100" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -539,6 +548,38 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$2:$D$9</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Voltage</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>230 VAC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>230 VAC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400 VAC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400 VAC</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>400 VAC</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400 - 500 VDC</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>300 - 500 VDC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$B$3:$B$9</c:f>
@@ -576,11 +617,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$2</c:f>
+              <c:f>Sheet1!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Max current Amper</c:v>
+                  <c:v>Voltage</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -588,7 +629,7 @@
           <c:spPr>
             <a:ln w="38100" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="92D050"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -597,6 +638,38 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$2:$D$9</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Voltage</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>230 VAC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>230 VAC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400 VAC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400 VAC</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>400 VAC</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400 - 500 VDC</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>300 - 500 VDC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$E$3:$E$9</c:f>
@@ -638,11 +711,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-47246496"/>
-        <c:axId val="-47245408"/>
+        <c:axId val="193401792"/>
+        <c:axId val="193405600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-47246496"/>
+        <c:axId val="193401792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -685,7 +758,7 @@
             <a:endParaRPr lang="tr-TR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-47245408"/>
+        <c:crossAx val="193405600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -693,7 +766,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-47245408"/>
+        <c:axId val="193405600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -717,9 +790,8 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="5000"/>
-                  <a:lumOff val="95000"/>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -758,7 +830,7 @@
             <a:endParaRPr lang="tr-TR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-47246496"/>
+        <c:crossAx val="193401792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1050,11 +1122,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-47255200"/>
-        <c:axId val="-47254112"/>
+        <c:axId val="193398528"/>
+        <c:axId val="193399072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-47255200"/>
+        <c:axId val="193398528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1115,7 +1187,7 @@
             <a:endParaRPr lang="tr-TR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-47254112"/>
+        <c:crossAx val="193399072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1123,7 +1195,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-47254112"/>
+        <c:axId val="193399072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1184,7 +1256,7 @@
             <a:endParaRPr lang="tr-TR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-47255200"/>
+        <c:crossAx val="193398528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2400,16 +2472,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>279194</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>146334</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>534865</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>87922</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2775,8 +2847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="D2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
